--- a/bin/pWeeklyDB.xlsx
+++ b/bin/pWeeklyDB.xlsx
@@ -7,8 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="p.03.20.2023" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="p.03.20.20231" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="p.3.20.2023" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2257,3321 +2256,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="40.7109375" customWidth="1" style="10" min="1" max="1"/>
-    <col width="15.7109375" customWidth="1" style="10" min="2" max="2"/>
-    <col width="20.7109375" customWidth="1" style="10" min="3" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1" s="10">
-      <c r="A1" s="13" t="inlineStr">
-        <is>
-          <t>Employee Sales Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="23" customHeight="1" s="10">
-      <c r="A2" s="14" t="inlineStr">
-        <is>
-          <t>UPSCALE NAILS &amp; SPA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="23" customHeight="1" s="10">
-      <c r="A3" s="13" t="inlineStr">
-        <is>
-          <t>03/20/2023 - 03/26/2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="23" customHeight="1" s="10">
-      <c r="A4" s="15" t="inlineStr">
-        <is>
-          <t>Employee Name</t>
-        </is>
-      </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="C4" s="15" t="inlineStr">
-        <is>
-          <t>QTY</t>
-        </is>
-      </c>
-      <c r="D4" s="15" t="inlineStr">
-        <is>
-          <t>In Service Hour</t>
-        </is>
-      </c>
-      <c r="E4" s="15" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="F4" s="15" t="inlineStr">
-        <is>
-          <t>Comm Price</t>
-        </is>
-      </c>
-      <c r="G4" s="15" t="inlineStr">
-        <is>
-          <t>Ticket Discount</t>
-        </is>
-      </c>
-      <c r="H4" s="15" t="inlineStr">
-        <is>
-          <t>Item Discount</t>
-        </is>
-      </c>
-      <c r="I4" s="15" t="inlineStr">
-        <is>
-          <t>Service Charge</t>
-        </is>
-      </c>
-      <c r="J4" s="15" t="inlineStr">
-        <is>
-          <t>Supply Charge</t>
-        </is>
-      </c>
-      <c r="K4" s="15" t="inlineStr">
-        <is>
-          <t>NonCash Tips</t>
-        </is>
-      </c>
-      <c r="L4" s="15" t="inlineStr">
-        <is>
-          <t>Commission</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="23" customHeight="1" s="10">
-      <c r="A5" s="16" t="n">
-        <v>45005.20833333334</v>
-      </c>
-    </row>
-    <row r="6" ht="23" customHeight="1" s="10">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Anna Ho (Anna)</t>
-        </is>
-      </c>
-      <c r="B6" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C6" s="19" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20" t="n">
-        <v>369</v>
-      </c>
-      <c r="F6" s="20" t="n">
-        <v>369</v>
-      </c>
-      <c r="G6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="L6" s="20" t="n">
-        <v>221.4</v>
-      </c>
-    </row>
-    <row r="7" ht="23" customHeight="1" s="10">
-      <c r="A7" s="17" t="inlineStr">
-        <is>
-          <t>Chau Nguyen (Tuan)</t>
-        </is>
-      </c>
-      <c r="B7" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20" t="n">
-        <v>250</v>
-      </c>
-      <c r="F7" s="20" t="n">
-        <v>250</v>
-      </c>
-      <c r="G7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="L7" s="20" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" ht="23" customHeight="1" s="10">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Huong Mai (Lisa)</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C8" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" s="19" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E8" s="20" t="n">
-        <v>266</v>
-      </c>
-      <c r="F8" s="20" t="n">
-        <v>266</v>
-      </c>
-      <c r="G8" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20" t="n">
-        <v>58.31</v>
-      </c>
-      <c r="L8" s="20" t="n">
-        <v>159.6</v>
-      </c>
-    </row>
-    <row r="9" ht="23" customHeight="1" s="10">
-      <c r="A9" s="17" t="inlineStr">
-        <is>
-          <t>Kelly Tran (Kelly)</t>
-        </is>
-      </c>
-      <c r="B9" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C9" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20" t="n">
-        <v>230</v>
-      </c>
-      <c r="F9" s="20" t="n">
-        <v>230</v>
-      </c>
-      <c r="G9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20" t="n">
-        <v>30</v>
-      </c>
-      <c r="L9" s="20" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" ht="23" customHeight="1" s="10">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Luan Tran (Sammy)</t>
-        </is>
-      </c>
-      <c r="B10" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C10" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20" t="n">
-        <v>343</v>
-      </c>
-      <c r="F10" s="20" t="n">
-        <v>343</v>
-      </c>
-      <c r="G10" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20" t="n">
-        <v>44.61999999999999</v>
-      </c>
-      <c r="L10" s="20" t="n">
-        <v>205.8</v>
-      </c>
-    </row>
-    <row r="11" ht="23" customHeight="1" s="10">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>Trung Tao (Ethan)</t>
-        </is>
-      </c>
-      <c r="B11" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C11" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20" t="n">
-        <v>303</v>
-      </c>
-      <c r="F11" s="20" t="n">
-        <v>303</v>
-      </c>
-      <c r="G11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20" t="n">
-        <v>48.39</v>
-      </c>
-      <c r="L11" s="20" t="n">
-        <v>181.8</v>
-      </c>
-    </row>
-    <row r="12" ht="23" customHeight="1" s="10">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>Ty Nguyen (Judy)</t>
-        </is>
-      </c>
-      <c r="B12" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C12" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20" t="n">
-        <v>258</v>
-      </c>
-      <c r="F12" s="20" t="n">
-        <v>258</v>
-      </c>
-      <c r="G12" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20" t="n">
-        <v>37.58</v>
-      </c>
-      <c r="L12" s="20" t="n">
-        <v>154.8</v>
-      </c>
-    </row>
-    <row r="13" ht="23" customHeight="1" s="10">
-      <c r="C13" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="D13" s="21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E13" s="22" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F13" s="22" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22" t="n">
-        <v>304.45</v>
-      </c>
-      <c r="L13" s="22" t="n">
-        <v>1211.4</v>
-      </c>
-    </row>
-    <row r="14" ht="23" customHeight="1" s="10">
-      <c r="A14" s="16" t="n">
-        <v>45006.20833333334</v>
-      </c>
-    </row>
-    <row r="15" ht="23" customHeight="1" s="10">
-      <c r="A15" s="17" t="inlineStr">
-        <is>
-          <t>Admin Admin (Admin)</t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C15" s="19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20" t="n">
-        <v>-50</v>
-      </c>
-      <c r="F15" s="20" t="n">
-        <v>-50</v>
-      </c>
-      <c r="G15" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="20" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="16" ht="23" customHeight="1" s="10">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>Andrew Mai (Kayla)</t>
-        </is>
-      </c>
-      <c r="B16" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C16" s="19" t="n">
-        <v>21</v>
-      </c>
-      <c r="D16" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20" t="n">
-        <v>570</v>
-      </c>
-      <c r="F16" s="20" t="n">
-        <v>570</v>
-      </c>
-      <c r="G16" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="20" t="n">
-        <v>49.00000000000001</v>
-      </c>
-      <c r="L16" s="20" t="n">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" ht="23" customHeight="1" s="10">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>Cindy Pham (Cindy)</t>
-        </is>
-      </c>
-      <c r="B17" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C17" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="D17" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20" t="n">
-        <v>463</v>
-      </c>
-      <c r="F17" s="20" t="n">
-        <v>463</v>
-      </c>
-      <c r="G17" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="20" t="n">
-        <v>29</v>
-      </c>
-      <c r="L17" s="20" t="n">
-        <v>277.8</v>
-      </c>
-    </row>
-    <row r="18" ht="23" customHeight="1" s="10">
-      <c r="A18" s="17" t="inlineStr">
-        <is>
-          <t>Huong Mai (Lisa)</t>
-        </is>
-      </c>
-      <c r="B18" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C18" s="19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D18" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="20" t="n">
-        <v>420</v>
-      </c>
-      <c r="F18" s="20" t="n">
-        <v>420</v>
-      </c>
-      <c r="G18" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="20" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="L18" s="20" t="n">
-        <v>252.0000000000001</v>
-      </c>
-    </row>
-    <row r="19" ht="23" customHeight="1" s="10">
-      <c r="A19" s="17" t="inlineStr">
-        <is>
-          <t>Kelly Tran (Kelly)</t>
-        </is>
-      </c>
-      <c r="B19" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C19" s="19" t="n">
-        <v>28</v>
-      </c>
-      <c r="D19" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="20" t="n">
-        <v>669.1</v>
-      </c>
-      <c r="F19" s="20" t="n">
-        <v>669.1</v>
-      </c>
-      <c r="G19" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="20" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="L19" s="20" t="n">
-        <v>401.46</v>
-      </c>
-    </row>
-    <row r="20" ht="23" customHeight="1" s="10">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>Luan Tran (Sammy)</t>
-        </is>
-      </c>
-      <c r="B20" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C20" s="19" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20" t="n">
-        <v>536</v>
-      </c>
-      <c r="F20" s="20" t="n">
-        <v>536</v>
-      </c>
-      <c r="G20" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="L20" s="20" t="n">
-        <v>321.6</v>
-      </c>
-    </row>
-    <row r="21" ht="23" customHeight="1" s="10">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>Thanh Tran (Leo)</t>
-        </is>
-      </c>
-      <c r="B21" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C21" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="20" t="n">
-        <v>80</v>
-      </c>
-      <c r="F21" s="20" t="n">
-        <v>80</v>
-      </c>
-      <c r="G21" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="20" t="n">
-        <v>16</v>
-      </c>
-      <c r="L21" s="20" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" ht="23" customHeight="1" s="10">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>Trung Tao (Ethan)</t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C22" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20" t="n">
-        <v>280</v>
-      </c>
-      <c r="F22" s="20" t="n">
-        <v>280</v>
-      </c>
-      <c r="G22" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="20" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="L22" s="20" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" ht="23" customHeight="1" s="10">
-      <c r="A23" s="17" t="inlineStr">
-        <is>
-          <t>Ty Nguyen (Judy)</t>
-        </is>
-      </c>
-      <c r="B23" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C23" s="19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D23" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20" t="n">
-        <v>414</v>
-      </c>
-      <c r="F23" s="20" t="n">
-        <v>414</v>
-      </c>
-      <c r="G23" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="20" t="n">
-        <v>35</v>
-      </c>
-      <c r="L23" s="20" t="n">
-        <v>248.4</v>
-      </c>
-    </row>
-    <row r="24" ht="23" customHeight="1" s="10">
-      <c r="C24" s="21" t="n">
-        <v>114</v>
-      </c>
-      <c r="D24" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22" t="n">
-        <v>3382.1</v>
-      </c>
-      <c r="F24" s="22" t="n">
-        <v>3382.1</v>
-      </c>
-      <c r="G24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="22" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="L24" s="22" t="n">
-        <v>2029.26</v>
-      </c>
-    </row>
-    <row r="25" ht="23" customHeight="1" s="10">
-      <c r="A25" s="16" t="n">
-        <v>45007.20833333334</v>
-      </c>
-    </row>
-    <row r="26" ht="23" customHeight="1" s="10">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>Andrew Mai (Kayla)</t>
-        </is>
-      </c>
-      <c r="B26" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C26" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D26" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20" t="n">
-        <v>288</v>
-      </c>
-      <c r="F26" s="20" t="n">
-        <v>288</v>
-      </c>
-      <c r="G26" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="20" t="n">
-        <v>29.75</v>
-      </c>
-      <c r="L26" s="20" t="n">
-        <v>172.8</v>
-      </c>
-    </row>
-    <row r="27" ht="23" customHeight="1" s="10">
-      <c r="A27" s="17" t="inlineStr">
-        <is>
-          <t>Anna Ho (Anna)</t>
-        </is>
-      </c>
-      <c r="B27" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C27" s="19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D27" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="20" t="n">
-        <v>333</v>
-      </c>
-      <c r="F27" s="20" t="n">
-        <v>333</v>
-      </c>
-      <c r="G27" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="20" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="L27" s="20" t="n">
-        <v>199.8</v>
-      </c>
-    </row>
-    <row r="28" ht="23" customHeight="1" s="10">
-      <c r="A28" s="17" t="inlineStr">
-        <is>
-          <t>Chau Nguyen (Tuan)</t>
-        </is>
-      </c>
-      <c r="B28" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C28" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D28" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="20" t="n">
-        <v>361</v>
-      </c>
-      <c r="F28" s="20" t="n">
-        <v>361</v>
-      </c>
-      <c r="G28" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="20" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L28" s="20" t="n">
-        <v>216.6</v>
-      </c>
-    </row>
-    <row r="29" ht="23" customHeight="1" s="10">
-      <c r="A29" s="17" t="inlineStr">
-        <is>
-          <t>Cindy Pham (Cindy)</t>
-        </is>
-      </c>
-      <c r="B29" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C29" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D29" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20" t="n">
-        <v>219</v>
-      </c>
-      <c r="F29" s="20" t="n">
-        <v>219</v>
-      </c>
-      <c r="G29" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="20" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L29" s="20" t="n">
-        <v>131.4</v>
-      </c>
-    </row>
-    <row r="30" ht="23" customHeight="1" s="10">
-      <c r="A30" s="17" t="inlineStr">
-        <is>
-          <t>Huong Mai (Lisa)</t>
-        </is>
-      </c>
-      <c r="B30" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C30" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D30" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="20" t="n">
-        <v>275</v>
-      </c>
-      <c r="F30" s="20" t="n">
-        <v>275</v>
-      </c>
-      <c r="G30" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="20" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="L30" s="20" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" ht="23" customHeight="1" s="10">
-      <c r="A31" s="17" t="inlineStr">
-        <is>
-          <t>Kelly Tran (Kelly)</t>
-        </is>
-      </c>
-      <c r="B31" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C31" s="19" t="n">
-        <v>16</v>
-      </c>
-      <c r="D31" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="20" t="n">
-        <v>458</v>
-      </c>
-      <c r="F31" s="20" t="n">
-        <v>458</v>
-      </c>
-      <c r="G31" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="20" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="L31" s="20" t="n">
-        <v>274.8</v>
-      </c>
-    </row>
-    <row r="32" ht="23" customHeight="1" s="10">
-      <c r="A32" s="17" t="inlineStr">
-        <is>
-          <t>Kelly Tran (Kelly)</t>
-        </is>
-      </c>
-      <c r="B32" s="18" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="C32" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F32" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G32" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="1" s="10">
-      <c r="A33" s="17" t="inlineStr">
-        <is>
-          <t>Thanh Tran (Leo)</t>
-        </is>
-      </c>
-      <c r="B33" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C33" s="19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D33" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="20" t="n">
-        <v>401</v>
-      </c>
-      <c r="F33" s="20" t="n">
-        <v>401</v>
-      </c>
-      <c r="G33" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="20" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="L33" s="20" t="n">
-        <v>240.6</v>
-      </c>
-    </row>
-    <row r="34" ht="23" customHeight="1" s="10">
-      <c r="A34" s="17" t="inlineStr">
-        <is>
-          <t>Trung Tao (Ethan)</t>
-        </is>
-      </c>
-      <c r="B34" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C34" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D34" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20" t="n">
-        <v>243</v>
-      </c>
-      <c r="F34" s="20" t="n">
-        <v>243</v>
-      </c>
-      <c r="G34" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="20" t="n">
-        <v>16</v>
-      </c>
-      <c r="L34" s="20" t="n">
-        <v>145.8</v>
-      </c>
-    </row>
-    <row r="35" ht="23" customHeight="1" s="10">
-      <c r="A35" s="17" t="inlineStr">
-        <is>
-          <t>Ty Nguyen (Judy)</t>
-        </is>
-      </c>
-      <c r="B35" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C35" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D35" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="20" t="n">
-        <v>286</v>
-      </c>
-      <c r="F35" s="20" t="n">
-        <v>286</v>
-      </c>
-      <c r="G35" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="20" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L35" s="20" t="n">
-        <v>171.6</v>
-      </c>
-    </row>
-    <row r="36" ht="23" customHeight="1" s="10">
-      <c r="C36" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="D36" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="22" t="n">
-        <v>2964</v>
-      </c>
-      <c r="F36" s="22" t="n">
-        <v>2964</v>
-      </c>
-      <c r="G36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="22" t="n">
-        <v>349.6</v>
-      </c>
-      <c r="L36" s="22" t="n">
-        <v>1718.4</v>
-      </c>
-    </row>
-    <row r="37" ht="23" customHeight="1" s="10">
-      <c r="A37" s="16" t="n">
-        <v>45008.20833333334</v>
-      </c>
-    </row>
-    <row r="38" ht="23" customHeight="1" s="10">
-      <c r="A38" s="17" t="inlineStr">
-        <is>
-          <t>Andrew Mai (Kayla)</t>
-        </is>
-      </c>
-      <c r="B38" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C38" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="D38" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="20" t="n">
-        <v>316</v>
-      </c>
-      <c r="F38" s="20" t="n">
-        <v>316</v>
-      </c>
-      <c r="G38" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="20" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="L38" s="20" t="n">
-        <v>189.6</v>
-      </c>
-    </row>
-    <row r="39" ht="23" customHeight="1" s="10">
-      <c r="A39" s="17" t="inlineStr">
-        <is>
-          <t>Anna Ho (Anna)</t>
-        </is>
-      </c>
-      <c r="B39" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C39" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D39" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="20" t="n">
-        <v>216</v>
-      </c>
-      <c r="F39" s="20" t="n">
-        <v>216</v>
-      </c>
-      <c r="G39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="L39" s="20" t="n">
-        <v>129.6</v>
-      </c>
-    </row>
-    <row r="40" ht="23" customHeight="1" s="10">
-      <c r="A40" s="17" t="inlineStr">
-        <is>
-          <t>Chau Nguyen (Tuan)</t>
-        </is>
-      </c>
-      <c r="B40" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C40" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D40" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="20" t="n">
-        <v>224</v>
-      </c>
-      <c r="F40" s="20" t="n">
-        <v>224</v>
-      </c>
-      <c r="G40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="20" t="n">
-        <v>25</v>
-      </c>
-      <c r="L40" s="20" t="n">
-        <v>134.4</v>
-      </c>
-    </row>
-    <row r="41" ht="23" customHeight="1" s="10">
-      <c r="A41" s="17" t="inlineStr">
-        <is>
-          <t>Cindy Pham (Cindy)</t>
-        </is>
-      </c>
-      <c r="B41" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C41" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D41" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="20" t="n">
-        <v>232</v>
-      </c>
-      <c r="F41" s="20" t="n">
-        <v>232</v>
-      </c>
-      <c r="G41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="20" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L41" s="20" t="n">
-        <v>139.2</v>
-      </c>
-    </row>
-    <row r="42" ht="23" customHeight="1" s="10">
-      <c r="A42" s="17" t="inlineStr">
-        <is>
-          <t>Huong Mai (Lisa)</t>
-        </is>
-      </c>
-      <c r="B42" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C42" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D42" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="20" t="n">
-        <v>179</v>
-      </c>
-      <c r="F42" s="20" t="n">
-        <v>179</v>
-      </c>
-      <c r="G42" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="20" t="n">
-        <v>12</v>
-      </c>
-      <c r="L42" s="20" t="n">
-        <v>107.4</v>
-      </c>
-    </row>
-    <row r="43" ht="23" customHeight="1" s="10">
-      <c r="A43" s="17" t="inlineStr">
-        <is>
-          <t>Kelly Tran (Kelly)</t>
-        </is>
-      </c>
-      <c r="B43" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C43" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D43" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="20" t="n">
-        <v>293</v>
-      </c>
-      <c r="F43" s="20" t="n">
-        <v>293</v>
-      </c>
-      <c r="G43" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="20" t="n">
-        <v>27</v>
-      </c>
-      <c r="L43" s="20" t="n">
-        <v>175.8</v>
-      </c>
-    </row>
-    <row r="44" ht="23" customHeight="1" s="10">
-      <c r="A44" s="17" t="inlineStr">
-        <is>
-          <t>Luan Tran (Sammy)</t>
-        </is>
-      </c>
-      <c r="B44" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C44" s="19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D44" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="20" t="n">
-        <v>308</v>
-      </c>
-      <c r="F44" s="20" t="n">
-        <v>308</v>
-      </c>
-      <c r="G44" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="20" t="n">
-        <v>24</v>
-      </c>
-      <c r="L44" s="20" t="n">
-        <v>184.8</v>
-      </c>
-    </row>
-    <row r="45" ht="23" customHeight="1" s="10">
-      <c r="A45" s="17" t="inlineStr">
-        <is>
-          <t>Thanh Tran (Leo)</t>
-        </is>
-      </c>
-      <c r="B45" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C45" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D45" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="20" t="n">
-        <v>258</v>
-      </c>
-      <c r="F45" s="20" t="n">
-        <v>258</v>
-      </c>
-      <c r="G45" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L45" s="20" t="n">
-        <v>154.8</v>
-      </c>
-    </row>
-    <row r="46" ht="23" customHeight="1" s="10">
-      <c r="A46" s="17" t="inlineStr">
-        <is>
-          <t>Trung Tao (Ethan)</t>
-        </is>
-      </c>
-      <c r="B46" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C46" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D46" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="20" t="n">
-        <v>160</v>
-      </c>
-      <c r="F46" s="20" t="n">
-        <v>160</v>
-      </c>
-      <c r="G46" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="20" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L46" s="20" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" ht="23" customHeight="1" s="10">
-      <c r="A47" s="17" t="inlineStr">
-        <is>
-          <t>Ty Nguyen (Judy)</t>
-        </is>
-      </c>
-      <c r="B47" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C47" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D47" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="20" t="n">
-        <v>130</v>
-      </c>
-      <c r="F47" s="20" t="n">
-        <v>130</v>
-      </c>
-      <c r="G47" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="20" t="n">
-        <v>23</v>
-      </c>
-      <c r="L47" s="20" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" ht="23" customHeight="1" s="10">
-      <c r="C48" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="D48" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="22" t="n">
-        <v>2316</v>
-      </c>
-      <c r="F48" s="22" t="n">
-        <v>2316</v>
-      </c>
-      <c r="G48" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="22" t="n">
-        <v>219.8</v>
-      </c>
-      <c r="L48" s="22" t="n">
-        <v>1389.6</v>
-      </c>
-    </row>
-    <row r="49" ht="23" customHeight="1" s="10">
-      <c r="A49" s="16" t="n">
-        <v>45009.20833333334</v>
-      </c>
-    </row>
-    <row r="50" ht="23" customHeight="1" s="10">
-      <c r="A50" s="17" t="inlineStr">
-        <is>
-          <t>Andrew Mai (Kayla)</t>
-        </is>
-      </c>
-      <c r="B50" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C50" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="D50" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="20" t="n">
-        <v>536</v>
-      </c>
-      <c r="F50" s="20" t="n">
-        <v>536</v>
-      </c>
-      <c r="G50" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="20" t="n">
-        <v>48</v>
-      </c>
-      <c r="L50" s="20" t="n">
-        <v>321.6</v>
-      </c>
-    </row>
-    <row r="51" ht="23" customHeight="1" s="10">
-      <c r="A51" s="17" t="inlineStr">
-        <is>
-          <t>Anna Ho (Anna)</t>
-        </is>
-      </c>
-      <c r="B51" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C51" s="19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="20" t="n">
-        <v>591</v>
-      </c>
-      <c r="F51" s="20" t="n">
-        <v>591</v>
-      </c>
-      <c r="G51" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="20" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L51" s="20" t="n">
-        <v>354.6</v>
-      </c>
-    </row>
-    <row r="52" ht="23" customHeight="1" s="10">
-      <c r="A52" s="17" t="inlineStr">
-        <is>
-          <t>Chau Nguyen (Tuan)</t>
-        </is>
-      </c>
-      <c r="B52" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C52" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="D52" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="20" t="n">
-        <v>420</v>
-      </c>
-      <c r="F52" s="20" t="n">
-        <v>420</v>
-      </c>
-      <c r="G52" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="20" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="L52" s="20" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" ht="23" customHeight="1" s="10">
-      <c r="A53" s="17" t="inlineStr">
-        <is>
-          <t>Cindy Pham (Cindy)</t>
-        </is>
-      </c>
-      <c r="B53" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C53" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="D53" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="20" t="n">
-        <v>387</v>
-      </c>
-      <c r="F53" s="20" t="n">
-        <v>387</v>
-      </c>
-      <c r="G53" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="20" t="n">
-        <v>49</v>
-      </c>
-      <c r="L53" s="20" t="n">
-        <v>232.2</v>
-      </c>
-    </row>
-    <row r="54" ht="23" customHeight="1" s="10">
-      <c r="A54" s="17" t="inlineStr">
-        <is>
-          <t>Huong Mai (Lisa)</t>
-        </is>
-      </c>
-      <c r="B54" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C54" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D54" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="20" t="n">
-        <v>338</v>
-      </c>
-      <c r="F54" s="20" t="n">
-        <v>338</v>
-      </c>
-      <c r="G54" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="20" t="n">
-        <v>46</v>
-      </c>
-      <c r="L54" s="20" t="n">
-        <v>202.8</v>
-      </c>
-    </row>
-    <row r="55" ht="23" customHeight="1" s="10">
-      <c r="A55" s="17" t="inlineStr">
-        <is>
-          <t>Kelly Tran (Kelly)</t>
-        </is>
-      </c>
-      <c r="B55" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C55" s="19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D55" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="20" t="n">
-        <v>412</v>
-      </c>
-      <c r="F55" s="20" t="n">
-        <v>412</v>
-      </c>
-      <c r="G55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="20" t="n">
-        <v>64.80000000000001</v>
-      </c>
-      <c r="L55" s="20" t="n">
-        <v>247.2</v>
-      </c>
-    </row>
-    <row r="56" ht="23" customHeight="1" s="10">
-      <c r="A56" s="17" t="inlineStr">
-        <is>
-          <t>Luan Tran (Sammy)</t>
-        </is>
-      </c>
-      <c r="B56" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C56" s="19" t="n">
-        <v>19</v>
-      </c>
-      <c r="D56" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="20" t="n">
-        <v>473</v>
-      </c>
-      <c r="F56" s="20" t="n">
-        <v>473</v>
-      </c>
-      <c r="G56" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="20" t="n">
-        <v>84.25</v>
-      </c>
-      <c r="L56" s="20" t="n">
-        <v>283.8</v>
-      </c>
-    </row>
-    <row r="57" ht="23" customHeight="1" s="10">
-      <c r="A57" s="17" t="inlineStr">
-        <is>
-          <t>Thanh Tran (Leo)</t>
-        </is>
-      </c>
-      <c r="B57" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C57" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="D57" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="20" t="n">
-        <v>533</v>
-      </c>
-      <c r="F57" s="20" t="n">
-        <v>533</v>
-      </c>
-      <c r="G57" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="20" t="n">
-        <v>46</v>
-      </c>
-      <c r="L57" s="20" t="n">
-        <v>319.8</v>
-      </c>
-    </row>
-    <row r="58" ht="23" customHeight="1" s="10">
-      <c r="A58" s="17" t="inlineStr">
-        <is>
-          <t>Trung Tao (Ethan)</t>
-        </is>
-      </c>
-      <c r="B58" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C58" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D58" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="20" t="n">
-        <v>380</v>
-      </c>
-      <c r="F58" s="20" t="n">
-        <v>380</v>
-      </c>
-      <c r="G58" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="20" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="L58" s="20" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" ht="23" customHeight="1" s="10">
-      <c r="A59" s="17" t="inlineStr">
-        <is>
-          <t>Ty Nguyen (Judy)</t>
-        </is>
-      </c>
-      <c r="B59" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C59" s="19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D59" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="20" t="n">
-        <v>321</v>
-      </c>
-      <c r="F59" s="20" t="n">
-        <v>321</v>
-      </c>
-      <c r="G59" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="20" t="n">
-        <v>29</v>
-      </c>
-      <c r="L59" s="20" t="n">
-        <v>192.6</v>
-      </c>
-    </row>
-    <row r="60" ht="23" customHeight="1" s="10">
-      <c r="C60" s="21" t="n">
-        <v>137</v>
-      </c>
-      <c r="D60" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="22" t="n">
-        <v>4391</v>
-      </c>
-      <c r="F60" s="22" t="n">
-        <v>4391</v>
-      </c>
-      <c r="G60" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="22" t="n">
-        <v>527.15</v>
-      </c>
-      <c r="L60" s="22" t="n">
-        <v>2634.6</v>
-      </c>
-    </row>
-    <row r="61" ht="23" customHeight="1" s="10">
-      <c r="A61" s="16" t="n">
-        <v>45010.20833333334</v>
-      </c>
-    </row>
-    <row r="62" ht="23" customHeight="1" s="10">
-      <c r="A62" s="17" t="inlineStr">
-        <is>
-          <t>00 0 (00)</t>
-        </is>
-      </c>
-      <c r="B62" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C62" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="20" t="n">
-        <v>33</v>
-      </c>
-      <c r="F62" s="20" t="n">
-        <v>33</v>
-      </c>
-      <c r="G62" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" s="20" t="n">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="63" ht="23" customHeight="1" s="10">
-      <c r="A63" s="17" t="inlineStr">
-        <is>
-          <t>Andrew Mai (Kayla)</t>
-        </is>
-      </c>
-      <c r="B63" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C63" s="19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D63" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="20" t="n">
-        <v>688</v>
-      </c>
-      <c r="F63" s="20" t="n">
-        <v>688</v>
-      </c>
-      <c r="G63" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" s="20" t="n">
-        <v>64.38</v>
-      </c>
-      <c r="L63" s="20" t="n">
-        <v>412.8</v>
-      </c>
-    </row>
-    <row r="64" ht="23" customHeight="1" s="10">
-      <c r="A64" s="17" t="inlineStr">
-        <is>
-          <t>Anna Ho (Anna)</t>
-        </is>
-      </c>
-      <c r="B64" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C64" s="19" t="n">
-        <v>26</v>
-      </c>
-      <c r="D64" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="20" t="n">
-        <v>703</v>
-      </c>
-      <c r="F64" s="20" t="n">
-        <v>703</v>
-      </c>
-      <c r="G64" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="20" t="n">
-        <v>71</v>
-      </c>
-      <c r="L64" s="20" t="n">
-        <v>421.8</v>
-      </c>
-    </row>
-    <row r="65" ht="23" customHeight="1" s="10">
-      <c r="A65" s="17" t="inlineStr">
-        <is>
-          <t>Chau Nguyen (Tuan)</t>
-        </is>
-      </c>
-      <c r="B65" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C65" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="D65" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="20" t="n">
-        <v>546</v>
-      </c>
-      <c r="F65" s="20" t="n">
-        <v>546</v>
-      </c>
-      <c r="G65" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="20" t="n">
-        <v>48.87</v>
-      </c>
-      <c r="L65" s="20" t="n">
-        <v>327.6</v>
-      </c>
-    </row>
-    <row r="66" ht="23" customHeight="1" s="10">
-      <c r="A66" s="17" t="inlineStr">
-        <is>
-          <t>Cindy Pham (Cindy)</t>
-        </is>
-      </c>
-      <c r="B66" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C66" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="D66" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="20" t="n">
-        <v>475</v>
-      </c>
-      <c r="F66" s="20" t="n">
-        <v>475</v>
-      </c>
-      <c r="G66" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="20" t="n">
-        <v>55.90000000000001</v>
-      </c>
-      <c r="L66" s="20" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="67" ht="23" customHeight="1" s="10">
-      <c r="A67" s="17" t="inlineStr">
-        <is>
-          <t>Huong Mai (Lisa)</t>
-        </is>
-      </c>
-      <c r="B67" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C67" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D67" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="20" t="n">
-        <v>414</v>
-      </c>
-      <c r="F67" s="20" t="n">
-        <v>414</v>
-      </c>
-      <c r="G67" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="20" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="L67" s="20" t="n">
-        <v>248.4</v>
-      </c>
-    </row>
-    <row r="68" ht="23" customHeight="1" s="10">
-      <c r="A68" s="17" t="inlineStr">
-        <is>
-          <t>Kelly Tran (Kelly)</t>
-        </is>
-      </c>
-      <c r="B68" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C68" s="19" t="n">
-        <v>27</v>
-      </c>
-      <c r="D68" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="20" t="n">
-        <v>725</v>
-      </c>
-      <c r="F68" s="20" t="n">
-        <v>725</v>
-      </c>
-      <c r="G68" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" s="20" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L68" s="20" t="n">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="69" ht="23" customHeight="1" s="10">
-      <c r="A69" s="17" t="inlineStr">
-        <is>
-          <t>Luan Tran (Sammy)</t>
-        </is>
-      </c>
-      <c r="B69" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C69" s="19" t="n">
-        <v>18</v>
-      </c>
-      <c r="D69" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="20" t="n">
-        <v>651</v>
-      </c>
-      <c r="F69" s="20" t="n">
-        <v>651</v>
-      </c>
-      <c r="G69" s="20" t="n">
-        <v>-10</v>
-      </c>
-      <c r="H69" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="20" t="n">
-        <v>78</v>
-      </c>
-      <c r="L69" s="20" t="n">
-        <v>390.6</v>
-      </c>
-    </row>
-    <row r="70" ht="23" customHeight="1" s="10">
-      <c r="A70" s="17" t="inlineStr">
-        <is>
-          <t>Quynh Nhu Lam (Nhu)</t>
-        </is>
-      </c>
-      <c r="B70" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C70" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D70" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="20" t="n">
-        <v>148</v>
-      </c>
-      <c r="F70" s="20" t="n">
-        <v>148</v>
-      </c>
-      <c r="G70" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L70" s="20" t="n">
-        <v>88.8</v>
-      </c>
-    </row>
-    <row r="71" ht="23" customHeight="1" s="10">
-      <c r="A71" s="17" t="inlineStr">
-        <is>
-          <t>Thanh Tran (Leo)</t>
-        </is>
-      </c>
-      <c r="B71" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C71" s="19" t="n">
-        <v>21</v>
-      </c>
-      <c r="D71" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="20" t="n">
-        <v>598</v>
-      </c>
-      <c r="F71" s="20" t="n">
-        <v>598</v>
-      </c>
-      <c r="G71" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" s="20" t="n">
-        <v>84</v>
-      </c>
-      <c r="L71" s="20" t="n">
-        <v>358.8</v>
-      </c>
-    </row>
-    <row r="72" ht="23" customHeight="1" s="10">
-      <c r="A72" s="17" t="inlineStr">
-        <is>
-          <t>Trung Tao (Ethan)</t>
-        </is>
-      </c>
-      <c r="B72" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C72" s="19" t="n">
-        <v>19</v>
-      </c>
-      <c r="D72" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="20" t="n">
-        <v>593</v>
-      </c>
-      <c r="F72" s="20" t="n">
-        <v>593</v>
-      </c>
-      <c r="G72" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" s="20" t="n">
-        <v>75</v>
-      </c>
-      <c r="L72" s="20" t="n">
-        <v>355.8</v>
-      </c>
-    </row>
-    <row r="73" ht="23" customHeight="1" s="10">
-      <c r="A73" s="17" t="inlineStr">
-        <is>
-          <t>Ty Nguyen (Judy)</t>
-        </is>
-      </c>
-      <c r="B73" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C73" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="D73" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="20" t="n">
-        <v>469</v>
-      </c>
-      <c r="F73" s="20" t="n">
-        <v>469</v>
-      </c>
-      <c r="G73" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" s="20" t="n">
-        <v>58</v>
-      </c>
-      <c r="L73" s="20" t="n">
-        <v>281.4</v>
-      </c>
-    </row>
-    <row r="74" ht="23" customHeight="1" s="10">
-      <c r="C74" s="21" t="n">
-        <v>189</v>
-      </c>
-      <c r="D74" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="22" t="n">
-        <v>6043</v>
-      </c>
-      <c r="F74" s="22" t="n">
-        <v>6043</v>
-      </c>
-      <c r="G74" s="22" t="n">
-        <v>-10</v>
-      </c>
-      <c r="H74" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" s="22" t="n">
-        <v>682.05</v>
-      </c>
-      <c r="L74" s="22" t="n">
-        <v>3625.800000000001</v>
-      </c>
-    </row>
-    <row r="75" ht="23" customHeight="1" s="10">
-      <c r="A75" s="16" t="n">
-        <v>45011.20833333334</v>
-      </c>
-    </row>
-    <row r="76" ht="23" customHeight="1" s="10">
-      <c r="A76" s="17" t="inlineStr">
-        <is>
-          <t>Andrew Mai (Kayla)</t>
-        </is>
-      </c>
-      <c r="B76" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C76" s="19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D76" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="20" t="n">
-        <v>283</v>
-      </c>
-      <c r="F76" s="20" t="n">
-        <v>283</v>
-      </c>
-      <c r="G76" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" s="20" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="L76" s="20" t="n">
-        <v>169.8</v>
-      </c>
-    </row>
-    <row r="77" ht="23" customHeight="1" s="10">
-      <c r="A77" s="17" t="inlineStr">
-        <is>
-          <t>Anna Ho (Anna)</t>
-        </is>
-      </c>
-      <c r="B77" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C77" s="19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D77" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" s="20" t="n">
-        <v>303</v>
-      </c>
-      <c r="F77" s="20" t="n">
-        <v>303</v>
-      </c>
-      <c r="G77" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L77" s="20" t="n">
-        <v>181.8</v>
-      </c>
-    </row>
-    <row r="78" ht="23" customHeight="1" s="10">
-      <c r="A78" s="17" t="inlineStr">
-        <is>
-          <t>Chau Nguyen (Tuan)</t>
-        </is>
-      </c>
-      <c r="B78" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C78" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D78" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="20" t="n">
-        <v>235</v>
-      </c>
-      <c r="F78" s="20" t="n">
-        <v>235</v>
-      </c>
-      <c r="G78" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" s="20" t="n">
-        <v>25</v>
-      </c>
-      <c r="L78" s="20" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" ht="23" customHeight="1" s="10">
-      <c r="A79" s="17" t="inlineStr">
-        <is>
-          <t>Cindy Pham (Cindy)</t>
-        </is>
-      </c>
-      <c r="B79" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C79" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D79" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="20" t="n">
-        <v>179</v>
-      </c>
-      <c r="F79" s="20" t="n">
-        <v>179</v>
-      </c>
-      <c r="G79" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" s="20" t="n">
-        <v>41</v>
-      </c>
-      <c r="L79" s="20" t="n">
-        <v>107.4</v>
-      </c>
-    </row>
-    <row r="80" ht="23" customHeight="1" s="10">
-      <c r="A80" s="17" t="inlineStr">
-        <is>
-          <t>Kelly Tran (Kelly)</t>
-        </is>
-      </c>
-      <c r="B80" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C80" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="D80" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="20" t="n">
-        <v>343</v>
-      </c>
-      <c r="F80" s="20" t="n">
-        <v>343</v>
-      </c>
-      <c r="G80" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" s="20" t="n">
-        <v>41.00000000000001</v>
-      </c>
-      <c r="L80" s="20" t="n">
-        <v>205.8</v>
-      </c>
-    </row>
-    <row r="81" ht="23" customHeight="1" s="10">
-      <c r="A81" s="17" t="inlineStr">
-        <is>
-          <t>Kelly Tran (Kelly)</t>
-        </is>
-      </c>
-      <c r="B81" s="18" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="C81" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" s="20" t="n">
-        <v>25</v>
-      </c>
-      <c r="F81" s="20" t="n">
-        <v>25</v>
-      </c>
-      <c r="G81" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="23" customHeight="1" s="10">
-      <c r="A82" s="17" t="inlineStr">
-        <is>
-          <t>Luan Tran (Sammy)</t>
-        </is>
-      </c>
-      <c r="B82" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C82" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D82" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="20" t="n">
-        <v>220</v>
-      </c>
-      <c r="F82" s="20" t="n">
-        <v>220</v>
-      </c>
-      <c r="G82" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" s="20" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="L82" s="20" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" ht="23" customHeight="1" s="10">
-      <c r="A83" s="17" t="inlineStr">
-        <is>
-          <t>Thanh Tran (Leo)</t>
-        </is>
-      </c>
-      <c r="B83" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C83" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D83" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" s="20" t="n">
-        <v>240</v>
-      </c>
-      <c r="F83" s="20" t="n">
-        <v>240</v>
-      </c>
-      <c r="G83" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" s="20" t="n">
-        <v>48</v>
-      </c>
-      <c r="L83" s="20" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" ht="23" customHeight="1" s="10">
-      <c r="A84" s="17" t="inlineStr">
-        <is>
-          <t>Trung Tao (Ethan)</t>
-        </is>
-      </c>
-      <c r="B84" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C84" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D84" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" s="20" t="n">
-        <v>233</v>
-      </c>
-      <c r="F84" s="20" t="n">
-        <v>233</v>
-      </c>
-      <c r="G84" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" s="20" t="n">
-        <v>32</v>
-      </c>
-      <c r="L84" s="20" t="n">
-        <v>139.8</v>
-      </c>
-    </row>
-    <row r="85" ht="23" customHeight="1" s="10">
-      <c r="A85" s="17" t="inlineStr">
-        <is>
-          <t>Tuoi Vu (Tina)</t>
-        </is>
-      </c>
-      <c r="B85" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C85" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D85" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" s="20" t="n">
-        <v>113</v>
-      </c>
-      <c r="F85" s="20" t="n">
-        <v>113</v>
-      </c>
-      <c r="G85" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" s="20" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="L85" s="20" t="n">
-        <v>67.8</v>
-      </c>
-    </row>
-    <row r="86" ht="23" customHeight="1" s="10">
-      <c r="A86" s="17" t="inlineStr">
-        <is>
-          <t>Ty Nguyen (Judy)</t>
-        </is>
-      </c>
-      <c r="B86" s="18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C86" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D86" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="20" t="n">
-        <v>213</v>
-      </c>
-      <c r="F86" s="20" t="n">
-        <v>213</v>
-      </c>
-      <c r="G86" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" s="20" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="L86" s="20" t="n">
-        <v>127.8</v>
-      </c>
-    </row>
-    <row r="87" ht="23" customHeight="1" s="10">
-      <c r="C87" s="21" t="n">
-        <v>77</v>
-      </c>
-      <c r="D87" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" s="22" t="n">
-        <v>2387</v>
-      </c>
-      <c r="F87" s="22" t="n">
-        <v>2387</v>
-      </c>
-      <c r="G87" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" s="22" t="n">
-        <v>312.15</v>
-      </c>
-      <c r="L87" s="22" t="n">
-        <v>1417.2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="23" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="C88" s="21" t="n">
-        <v>757</v>
-      </c>
-      <c r="D88" s="21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E88" s="22" t="n">
-        <v>23502.1</v>
-      </c>
-      <c r="F88" s="22" t="n">
-        <v>23502.1</v>
-      </c>
-      <c r="G88" s="22" t="n">
-        <v>-10</v>
-      </c>
-      <c r="H88" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" s="22" t="n">
-        <v>2666.3</v>
-      </c>
-      <c r="L88" s="22" t="n">
-        <v>14026.26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
